--- a/biology/Zoologie/Barbican_guifsobalito/Barbican_guifsobalito.xlsx
+++ b/biology/Zoologie/Barbican_guifsobalito/Barbican_guifsobalito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lybius guifsobalito
 Le Barbican guifsobalito (Lybius guifsobalito) est une espèce d'oiseaux de la famille des Lybiidae, originaire d’Afrique.
@@ -512,10 +524,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un oiseau noir dont la face, la gorge et la partie supérieure de la poitrine est d'un rouge éclatant. Il présente de fines lignes jaunes sur le dessus des ailes. Le bec est fort et noir.
-Le Barbican guifsobalito est proche du Barbican à collier (Lybius torquatus) et du Barbican à face rouge (Lybius rubrifacies)[1].
+Le Barbican guifsobalito est proche du Barbican à collier (Lybius torquatus) et du Barbican à face rouge (Lybius rubrifacies).
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,7 +586,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique tropicale, dans différentes zones situées entre le sud du Sahara et l'équateur (voir la carte de répartition sur le site WWF Wildfinder.
 </t>
@@ -603,8 +621,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Statut et préservation
-Cet oiseau est classé par l'UICN dans la catégorie LC (préoccupation mineure) du fait de l'importance de son aire de répartition, et de sa population qui semble actuellement en croissance[2].
+          <t>Statut et préservation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est classé par l'UICN dans la catégorie LC (préoccupation mineure) du fait de l'importance de son aire de répartition, et de sa population qui semble actuellement en croissance.
 </t>
         </is>
       </c>
